--- a/tip.xlsx
+++ b/tip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\project\clothes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -429,546 +429,546 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=9xtGToH8Hbk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nNF7xgjwg7U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후드티를 활용한 5가지 코디 방법!!! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O-cXTevbWbg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1X7 기본 재킷편 재킷 하나로 뽕뽑는 7가지 스타일링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W_GjcZWZKYQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본~응용&amp;신발까지 찝어주는 “블레이져 코디 가이드!!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RZ5IXtUTyjE</t>
+  </si>
+  <si>
+    <t>코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p15Tp9J63Ks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코트 장인이 말해주는 코트 실패없이 사는법 (ft.실패사례 구경해용, 꿀팁영끌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zBy7DTDtzso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷장 공간 차지 주범 패딩! 길이별로 접는 방법 4가지 알려드립니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yqETMqmd-GU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FHsWzI8eXfI</t>
+  </si>
+  <si>
+    <t>청바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KFEaP5oyABA</t>
+  </si>
+  <si>
+    <t>스타일 만큼 중요한 옷 관리 꿀팁 7가지!!(feat.청바지,옷다리기,바나나먹방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3Q8OV4F9Nq0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 봐두면 평생 도움되는 바지 롤업하는법 (슬림,와이드,면바지,데님)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최애 슬랙스 추천 &amp; 실패없는 코디방법 (feat.더니트컴퍼니)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반팔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ovOwAMoDpTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[패션] 티셔츠로 할수 있는 모든 코디,스타일링!! 티셔츠 넣입!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O_QVwpBe2IM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더러운 운동화 핵 쉬운 세탁법 &amp; 초고속 건조 꿀팁!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cn1Swu4oqWc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커 하나로 4가지 데일리룩 코디하기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SQ11t0K7T9g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5가지 스타일의 워크부츠 리뷰와 코디 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구두&amp;가죽신발 관리 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나 쉽게 따라 할 수 있는 기본 셔츠 세련되게 입는 노하우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분 모르는 반팔티셔츠 꿀팁 6가지 [패션꿀팁]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/_Ccf01zT4N4/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCzCVyFxnyZows8T_evdxq6KarE7w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OlDyAK-DkH0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제나 활용하기 좋은 '가디건 코디 방법'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/OlDyAK-DkH0/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLDrV4MNF7hmJEYwHizvknBsgQuBsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ZeBMvx57BSU/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBt-Sjgnwpgy0l3fkkv7MZLAbBETw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5jmoe1p3lRg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/5jmoe1p3lRg/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBpHr_z-bJI-IWlFoWzLNonHnESTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/PlweldbWz1U/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAmXKGf6_VCsPniqpKBbHLgHgKdCg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/bFbG3NM4iW8/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLByqAxxIfwpZ10Ambs64iWLKijoKg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/nFtpzt5xQ0Q/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAvA9MWvS6WmHTXuYWk4EP9BVO85w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/YhoCZwc_V0U/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCn0iJb90WvwweA9KyhnO-lE5nZGQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/SC4HYOh0kpo/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLDfDLBa9tKziUjNxbidEPXxUwLK_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/lkryvYvfYYk/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCdZEhKB8wzakssb7LoMwQZVP_iNg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ovOwAMoDpTo/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLC6PVLxSxFfjRPMgkExUsr__tmyEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/9xtGToH8Hbk/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAybB3xvGaWG_AJ8ODJlISIzD8SiA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/nNF7xgjwg7U/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLA2cHC9F1upysp1nrbAJ72vbAz7uA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/O-cXTevbWbg/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCn8X8QbUMpQ8h87Y-otHc16aXWfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/W_GjcZWZKYQ/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBIdn7Y_bYCWahmPAN2kYo9zw68Zg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/RZ5IXtUTyjE/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAAByhSvBqJP3VHKh7cF5hO0jjNNg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/p15Tp9J63Ks/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCyGDIm4Po73Vhp8wNppktsLiQePw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/zBy7DTDtzso/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBHfRnazZeD4OSyqZ5km5rKd2hMog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[패션] 슬랙스 예쁘게 코디 하는 방법! 신발 매치는 덤~기장은 영상에서 확인!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ro0Xaq0IAK0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3pc_7vOsckg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/yqETMqmd-GU/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAk6iuPNbZpVNBwfXiGFoTmQ8yhtQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 '반바지' 코디 이 영상 하나면 끝!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/FHsWzI8eXfI/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCHko_e6hBEXmiuYIES2Jf4Uf64Cw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/3Q8OV4F9Nq0/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLC9iqj5xEFg4muRB2xe4f-60q43GQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/KFEaP5oyABA/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLB1xUHMNdGyLojw3w0cZDEDzmzI3w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/3pc_7vOsckg/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLB7NBcbzWIC2qtbYX2SuE2NmXbF-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Ro0Xaq0IAK0/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCw4yeWRA6q_qJIdG7ZfyBGWSYbxA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/iUeUEItjxNw/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLA7s4819DbKLonlrIrOZ4fJcfs1ZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패션의 완성이 구두인 4가지 이유! 코디법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/LO9Nncz0dcA/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCpa96UImkWK0d1Z-WJuKC3VNGo7Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/O_QVwpBe2IM/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBNoPt-ME8wY5Jlogsjstbx3ECYKw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/cn1Swu4oqWc/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAppaPUAttwoX9k96jOf47wyUnMkw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/SQ11t0K7T9g/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLB8d8MgyO6P-2H9doUl1wUU5k8c4w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>티셔츠 이쁘게 넣는법(남성 티셔츠 넣는법 3가지)</t>
+  </si>
+  <si>
+    <t>대부분 남성들이 모르는 셔츠 꿀팁 9가지!</t>
+  </si>
+  <si>
+    <t>남성 여름 나시티로 남친룩 코디하기!!</t>
+  </si>
+  <si>
+    <t>후드티 코디하기! 개성있게 입어보성!! 후드티,남성코디,데일리룩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">코트 잘입는법 색상별 남성코트코디방법 </t>
+  </si>
+  <si>
+    <t>대부분 남성들이 모르는 반바지 꿀팁5가지 [패션꿀팁]</t>
+  </si>
+  <si>
+    <t>자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨투맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬렉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬렉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샌들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후드티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 구매하기 가장 좋은 시기? 라이더 자켓 이야기와 코디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/k_UY0EXGSmg/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCKXNHlu-3EDKi4L_p1UfylIz-3Bw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽자켓 한개로 트렌드 따라잡기 _14가지 가죽자켓 스타일링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Gp55uLdbC30/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCPjpmf14-Cfd69An3jp1m_0yh0zg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qDrMEdKD6qk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k_UY0EXGSmg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yY_J0ENrU1M</t>
+  </si>
+  <si>
+    <t>맨투맨 넣어 입는법부터 레이어드까지!! 완전정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/yY_J0ENrU1M/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLD5J7uLHsdXWClBTYNPU9h87vrbjg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 뭐 입지? 고민 그만‼️ 데일리룩으로 최고! 맨투맨으로 일주일 착장 뿌수기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aE9iuBkngBw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/aE9iuBkngBw/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCerumOLCnwiBXeRidwq90HYcXr6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체형별 부츠 추천/ 다리 길어보이고, 얇아보이는 부츠를 찾는다면 꼭 봐야하는 영상~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CDOqLHO9-lA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/CDOqLHO9-lA/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLC_pZe4ZbM1B2bwnCjZaigyvVvO5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/3c2dtM-lSMA/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCI5wf0yHwY7bDN0D1NWglv0GuIkw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">운동화 보다는 부츠지!! 첼시&amp;앵클부츠 3가지 추천! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3c2dtM-lSMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P8Hzt2g1Jlk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청치마 하나로 10가지 코디 돌려입기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/P8Hzt2g1Jlk/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBAsAsrM6KzgytnMq-CDZuTl9ruRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ggUA-PPdam0&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>플리스 자켓 세탁법ㅣ후리스 뽀송뽀송하게 세탁하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플리스 자켓 세탁법ㅣ후리스 뽀송뽀송하게 세탁하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ggUA-PPdam0/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAHtqXbZWwUZdDQKyAvtmcqppIvuw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Fj4uCNuXs7o/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCKxFxlmKLnc6j8HMkXYiz612pkug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fj4uCNuXs7o</t>
+  </si>
+  <si>
+    <t>원피스 스타일 팁 ! 체형별 스타일링 하는 법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"여름 샌들 뭐사지?" 스타일별 어울리는 샌들 골라드림! [무신사 샌들&amp;슬리퍼 기획전 MMGL, 야세, 버켄스탁, 차코] 【리뷰&amp;하울】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=91lKnjnxERc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=91lKnjnxERc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/91lKnjnxERc/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;amp;rs=AOn4CLAbdit5mqXJXE0o6i0kMkSpQni0jA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=lkryvYvfYYk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9xtGToH8Hbk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nNF7xgjwg7U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후드티를 활용한 5가지 코디 방법!!! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O-cXTevbWbg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1X7 기본 재킷편 재킷 하나로 뽕뽑는 7가지 스타일링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=W_GjcZWZKYQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본~응용&amp;신발까지 찝어주는 “블레이져 코디 가이드!!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RZ5IXtUTyjE</t>
-  </si>
-  <si>
-    <t>코트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=p15Tp9J63Ks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코트 장인이 말해주는 코트 실패없이 사는법 (ft.실패사례 구경해용, 꿀팁영끌)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zBy7DTDtzso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷장 공간 차지 주범 패딩! 길이별로 접는 방법 4가지 알려드립니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반바지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yqETMqmd-GU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FHsWzI8eXfI</t>
-  </si>
-  <si>
-    <t>청바지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KFEaP5oyABA</t>
-  </si>
-  <si>
-    <t>스타일 만큼 중요한 옷 관리 꿀팁 7가지!!(feat.청바지,옷다리기,바나나먹방)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면바지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면바지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3Q8OV4F9Nq0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한번 봐두면 평생 도움되는 바지 롤업하는법 (슬림,와이드,면바지,데님)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최애 슬랙스 추천 &amp; 실패없는 코디방법 (feat.더니트컴퍼니)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반팔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ovOwAMoDpTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[패션] 티셔츠로 할수 있는 모든 코디,스타일링!! 티셔츠 넣입!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운동화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O_QVwpBe2IM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더러운 운동화 핵 쉬운 세탁법 &amp; 초고속 건조 꿀팁!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cn1Swu4oqWc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워커 하나로 4가지 데일리룩 코디하기!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SQ11t0K7T9g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5가지 스타일의 워크부츠 리뷰와 코디 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구두&amp;가죽신발 관리 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누구나 쉽게 따라 할 수 있는 기본 셔츠 세련되게 입는 노하우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대부분 모르는 반팔티셔츠 꿀팁 6가지 [패션꿀팁]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/_Ccf01zT4N4/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCzCVyFxnyZows8T_evdxq6KarE7w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OlDyAK-DkH0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언제나 활용하기 좋은 '가디건 코디 방법'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/OlDyAK-DkH0/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLDrV4MNF7hmJEYwHizvknBsgQuBsA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ZeBMvx57BSU/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBt-Sjgnwpgy0l3fkkv7MZLAbBETw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5jmoe1p3lRg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/5jmoe1p3lRg/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBpHr_z-bJI-IWlFoWzLNonHnESTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/PlweldbWz1U/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAmXKGf6_VCsPniqpKBbHLgHgKdCg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/bFbG3NM4iW8/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLByqAxxIfwpZ10Ambs64iWLKijoKg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/nFtpzt5xQ0Q/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAvA9MWvS6WmHTXuYWk4EP9BVO85w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/YhoCZwc_V0U/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCn0iJb90WvwweA9KyhnO-lE5nZGQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/SC4HYOh0kpo/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLDfDLBa9tKziUjNxbidEPXxUwLK_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/lkryvYvfYYk/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCdZEhKB8wzakssb7LoMwQZVP_iNg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ovOwAMoDpTo/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLC6PVLxSxFfjRPMgkExUsr__tmyEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/9xtGToH8Hbk/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAybB3xvGaWG_AJ8ODJlISIzD8SiA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/nNF7xgjwg7U/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLA2cHC9F1upysp1nrbAJ72vbAz7uA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/O-cXTevbWbg/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCn8X8QbUMpQ8h87Y-otHc16aXWfw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/W_GjcZWZKYQ/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBIdn7Y_bYCWahmPAN2kYo9zw68Zg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/RZ5IXtUTyjE/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAAByhSvBqJP3VHKh7cF5hO0jjNNg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/p15Tp9J63Ks/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCyGDIm4Po73Vhp8wNppktsLiQePw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/zBy7DTDtzso/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBHfRnazZeD4OSyqZ5km5rKd2hMog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[패션] 슬랙스 예쁘게 코디 하는 방법! 신발 매치는 덤~기장은 영상에서 확인!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ro0Xaq0IAK0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3pc_7vOsckg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/yqETMqmd-GU/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAk6iuPNbZpVNBwfXiGFoTmQ8yhtQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름 '반바지' 코디 이 영상 하나면 끝!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/FHsWzI8eXfI/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCHko_e6hBEXmiuYIES2Jf4Uf64Cw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/3Q8OV4F9Nq0/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLC9iqj5xEFg4muRB2xe4f-60q43GQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/KFEaP5oyABA/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLB1xUHMNdGyLojw3w0cZDEDzmzI3w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/3pc_7vOsckg/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLB7NBcbzWIC2qtbYX2SuE2NmXbF-w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Ro0Xaq0IAK0/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCw4yeWRA6q_qJIdG7ZfyBGWSYbxA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/iUeUEItjxNw/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLA7s4819DbKLonlrIrOZ4fJcfs1ZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패션의 완성이 구두인 4가지 이유! 코디법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/LO9Nncz0dcA/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCpa96UImkWK0d1Z-WJuKC3VNGo7Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/O_QVwpBe2IM/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBNoPt-ME8wY5Jlogsjstbx3ECYKw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/cn1Swu4oqWc/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAppaPUAttwoX9k96jOf47wyUnMkw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/SQ11t0K7T9g/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLB8d8MgyO6P-2H9doUl1wUU5k8c4w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
-  </si>
-  <si>
-    <t>남성</t>
-  </si>
-  <si>
-    <t>티셔츠 이쁘게 넣는법(남성 티셔츠 넣는법 3가지)</t>
-  </si>
-  <si>
-    <t>대부분 남성들이 모르는 셔츠 꿀팁 9가지!</t>
-  </si>
-  <si>
-    <t>남성 여름 나시티로 남친룩 코디하기!!</t>
-  </si>
-  <si>
-    <t>후드티 코디하기! 개성있게 입어보성!! 후드티,남성코디,데일리룩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">코트 잘입는법 색상별 남성코트코디방법 </t>
-  </si>
-  <si>
-    <t>대부분 남성들이 모르는 반바지 꿀팁5가지 [패션꿀팁]</t>
-  </si>
-  <si>
-    <t>자켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽자켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맨투맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬렉스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬렉스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샌들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후드티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 구매하기 가장 좋은 시기? 라이더 자켓 이야기와 코디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/k_UY0EXGSmg/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCKXNHlu-3EDKi4L_p1UfylIz-3Bw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽자켓 한개로 트렌드 따라잡기 _14가지 가죽자켓 스타일링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Gp55uLdbC30/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCPjpmf14-Cfd69An3jp1m_0yh0zg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qDrMEdKD6qk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k_UY0EXGSmg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yY_J0ENrU1M</t>
-  </si>
-  <si>
-    <t>맨투맨 넣어 입는법부터 레이어드까지!! 완전정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/yY_J0ENrU1M/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLD5J7uLHsdXWClBTYNPU9h87vrbjg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내일 뭐 입지? 고민 그만‼️ 데일리룩으로 최고! 맨투맨으로 일주일 착장 뿌수기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aE9iuBkngBw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/aE9iuBkngBw/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCerumOLCnwiBXeRidwq90HYcXr6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체형별 부츠 추천/ 다리 길어보이고, 얇아보이는 부츠를 찾는다면 꼭 봐야하는 영상~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CDOqLHO9-lA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/CDOqLHO9-lA/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLC_pZe4ZbM1B2bwnCjZaigyvVvO5A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/3c2dtM-lSMA/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCI5wf0yHwY7bDN0D1NWglv0GuIkw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">운동화 보다는 부츠지!! 첼시&amp;앵클부츠 3가지 추천! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3c2dtM-lSMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P8Hzt2g1Jlk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청치마 하나로 10가지 코디 돌려입기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/P8Hzt2g1Jlk/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLBAsAsrM6KzgytnMq-CDZuTl9ruRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ggUA-PPdam0&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>플리스 자켓 세탁법ㅣ후리스 뽀송뽀송하게 세탁하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플리스 자켓 세탁법ㅣ후리스 뽀송뽀송하게 세탁하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ggUA-PPdam0/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAHtqXbZWwUZdDQKyAvtmcqppIvuw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Fj4uCNuXs7o/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCKxFxlmKLnc6j8HMkXYiz612pkug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Fj4uCNuXs7o</t>
-  </si>
-  <si>
-    <t>원피스 스타일 팁 ! 체형별 스타일링 하는 법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"여름 샌들 뭐사지?" 스타일별 어울리는 샌들 골라드림! [무신사 샌들&amp;슬리퍼 기획전 MMGL, 야세, 버켄스탁, 차코] 【리뷰&amp;하울】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=91lKnjnxERc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=91lKnjnxERc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/91lKnjnxERc/hqdefault.jpg?sqp=-oaymwEZCPYBEIoBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;amp;rs=AOn4CLAbdit5mqXJXE0o6i0kMkSpQni0jA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1378,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1398,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1407,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1415,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,16 +1432,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1449,16 +1449,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1475,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1483,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1492,7 +1492,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1500,16 +1500,16 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1517,16 +1517,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1543,7 +1543,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1551,16 +1551,16 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1568,305 +1568,305 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1874,16 +1874,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1891,288 +1891,288 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
